--- a/LOGS/cb5a8c40-b4b8-4778-a3db-58160e590cb0/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/cb5a8c40-b4b8-4778-a3db-58160e590cb0/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -13,20 +13,26 @@
     <sheet name="11__244abe48-95a6-38" sheetId="4" r:id="rId4"/>
     <sheet name="12__11861af5-5316-33" sheetId="5" r:id="rId5"/>
     <sheet name="14__b1a9f356-7fb6-3a" sheetId="6" r:id="rId6"/>
-    <sheet name="15__f7c9c378-26d0-34" sheetId="7" r:id="rId7"/>
-    <sheet name="16__894762b3-0466-3b" sheetId="8" r:id="rId8"/>
-    <sheet name="16__2a7042d4-4a97-3c" sheetId="9" r:id="rId9"/>
-    <sheet name="17__a559bd49-7341-39" sheetId="10" r:id="rId10"/>
-    <sheet name="18__e4f11426-201b-30" sheetId="11" r:id="rId11"/>
-    <sheet name="19__30edcff6-0c5d-3b" sheetId="12" r:id="rId12"/>
-    <sheet name="19__c385dc9a-7b4a-38" sheetId="13" r:id="rId13"/>
+    <sheet name="7__502fa075-585e-30c" sheetId="7" r:id="rId7"/>
+    <sheet name="7__4e315c1b-b2e8-3c9" sheetId="8" r:id="rId8"/>
+    <sheet name="7__e0c4bc61-0635-370" sheetId="9" r:id="rId9"/>
+    <sheet name="7__2d5dcd12-d0ce-37c" sheetId="10" r:id="rId10"/>
+    <sheet name="15__f7c9c378-26d0-34" sheetId="11" r:id="rId11"/>
+    <sheet name="16__894762b3-0466-3b" sheetId="12" r:id="rId12"/>
+    <sheet name="16__2a7042d4-4a97-3c" sheetId="13" r:id="rId13"/>
+    <sheet name="17__a559bd49-7341-39" sheetId="14" r:id="rId14"/>
+    <sheet name="18__e4f11426-201b-30" sheetId="15" r:id="rId15"/>
+    <sheet name="19__30edcff6-0c5d-3b" sheetId="16" r:id="rId16"/>
+    <sheet name="19__c385dc9a-7b4a-38" sheetId="17" r:id="rId17"/>
+    <sheet name="4__4804b444-e9a6-3c0" sheetId="18" r:id="rId18"/>
+    <sheet name="6__4804b444-e9a6-3c0" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="135">
   <si>
     <t>line_item_0</t>
   </si>
@@ -184,6 +190,111 @@
     <t>Reconciliation of carrying amount</t>
   </si>
   <si>
+    <t>header_col_3</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>Property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Prepayments</t>
+  </si>
+  <si>
+    <t>Tax losses carried forward</t>
+  </si>
+  <si>
+    <t>set-off</t>
+  </si>
+  <si>
+    <t>Set-off of tax</t>
+  </si>
+  <si>
+    <t>Net tax assets</t>
+  </si>
+  <si>
+    <t>Tax assets (liabilities) before</t>
+  </si>
+  <si>
+    <t>Recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>assets</t>
+  </si>
+  <si>
+    <t>Deferred tax liabilities</t>
+  </si>
+  <si>
+    <t>Deferred tax</t>
+  </si>
+  <si>
+    <t>Current year</t>
+  </si>
+  <si>
+    <t>Adjustment for prior years</t>
+  </si>
+  <si>
+    <t>Origination and reversal of temporary differences</t>
+  </si>
+  <si>
+    <t>Total income tax expense</t>
+  </si>
+  <si>
+    <t>Current tax expense</t>
+  </si>
+  <si>
+    <t>Deferred tax expense/(benefit)</t>
+  </si>
+  <si>
+    <t>Profit before income tax</t>
+  </si>
+  <si>
+    <t>Tax using Company's domestic tax rate 30% (2022: 30%)</t>
+  </si>
+  <si>
+    <t>Non-deductible expenses</t>
+  </si>
+  <si>
+    <t>Changes in estimates related to prior years</t>
+  </si>
+  <si>
+    <t>Income tax expense</t>
+  </si>
+  <si>
+    <t>line_item_2</t>
+  </si>
+  <si>
+    <t>5963695</t>
+  </si>
+  <si>
+    <t>(809,097)</t>
+  </si>
+  <si>
+    <t>(250,215)</t>
+  </si>
+  <si>
+    <t>33377</t>
+  </si>
+  <si>
+    <t>4937760</t>
+  </si>
+  <si>
+    <t>244625</t>
+  </si>
+  <si>
+    <t>116103</t>
+  </si>
+  <si>
+    <t>360728</t>
+  </si>
+  <si>
+    <t>Deferred tax assets</t>
+  </si>
+  <si>
     <t>Trade and other payables</t>
   </si>
   <si>
@@ -205,9 +316,6 @@
     <t>Other creditors and accruals</t>
   </si>
   <si>
-    <t>line_item_2</t>
-  </si>
-  <si>
     <t>Related party loan</t>
   </si>
   <si>
@@ -293,6 +401,42 @@
   </si>
   <si>
     <t>Fully paid ordinary shares at end of year</t>
+  </si>
+  <si>
+    <t>Trucks and buses</t>
+  </si>
+  <si>
+    <t>InAUD</t>
+  </si>
+  <si>
+    <t>Products transferred at a point in time</t>
+  </si>
+  <si>
+    <t>Timing of revenue recognition</t>
+  </si>
+  <si>
+    <t>Interestincome using the effective interest rate method</t>
+  </si>
+  <si>
+    <t>Finance income</t>
+  </si>
+  <si>
+    <t>Lease liabilities</t>
+  </si>
+  <si>
+    <t>Loans and borrowings</t>
+  </si>
+  <si>
+    <t>Net foreign exchange loss</t>
+  </si>
+  <si>
+    <t>Finance costs</t>
+  </si>
+  <si>
+    <t>Net finance costs recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>Interest expense using the effective interest rate method on:</t>
   </si>
 </sst>
 </file>
@@ -764,6 +908,1349 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2">
+        <v>6208320</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3">
+        <v>-692994</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>-250215</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5">
+        <v>33377</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>5298488</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>5298488</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9">
+        <v>6208320</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12">
+        <v>33377</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>6241697</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>-943209</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <v>5298488</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17">
+        <v>-692994</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18">
+        <v>-250215</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20">
+        <v>-943209</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <v>943209</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>7802444</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+      <c r="F2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>333926</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+      <c r="F3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>34427416</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+      <c r="F4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>2795414</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+      <c r="F5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>754341</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+      <c r="F6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>5293901</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+      <c r="F7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>2441269</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+      <c r="F8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>53848711</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="F9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>8166254</v>
+      </c>
+      <c r="E10">
+        <v>2022</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>785740</v>
+      </c>
+      <c r="E11">
+        <v>2022</v>
+      </c>
+      <c r="F11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>44920374</v>
+      </c>
+      <c r="E12">
+        <v>2022</v>
+      </c>
+      <c r="F12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>2471759</v>
+      </c>
+      <c r="E13">
+        <v>2022</v>
+      </c>
+      <c r="F13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>503541</v>
+      </c>
+      <c r="E14">
+        <v>2022</v>
+      </c>
+      <c r="F14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>3376358</v>
+      </c>
+      <c r="E15">
+        <v>2022</v>
+      </c>
+      <c r="F15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>6047112</v>
+      </c>
+      <c r="E16">
+        <v>2022</v>
+      </c>
+      <c r="F16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>66271138</v>
+      </c>
+      <c r="E17">
+        <v>2022</v>
+      </c>
+      <c r="F17">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>70000000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>70948462</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>140948462</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>70000000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>70948462</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>140948462</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>70006039</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>43733593</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>113739632</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>70000000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>41234712</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>111234712</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>70000000</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+      <c r="F2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>70948462</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+      <c r="F3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>140948462</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+      <c r="F4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>70000000</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>41234712</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>111234712</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
+      </c>
+      <c r="F7">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -778,7 +2265,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -795,7 +2282,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -812,7 +2299,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -846,10 +2333,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="E5">
         <v>520000</v>
@@ -866,7 +2353,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="E6">
         <v>520000</v>
@@ -883,13 +2370,13 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -906,13 +2393,13 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E8">
         <v>520000</v>
@@ -926,16 +2413,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -949,16 +2436,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -972,16 +2459,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -998,13 +2485,13 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E12">
         <v>520000</v>
@@ -1018,7 +2505,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1035,7 +2522,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1069,10 +2556,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="E16">
         <v>520000</v>
@@ -1089,7 +2576,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="E17">
         <v>520000</v>
@@ -1106,13 +2593,13 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1129,13 +2616,13 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E19">
         <v>28821337</v>
@@ -1149,16 +2636,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E20">
         <v>46444913</v>
@@ -1172,16 +2659,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E21">
         <v>-2034580</v>
@@ -1195,16 +2682,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E22">
         <v>-46059298</v>
@@ -1221,13 +2708,13 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E23">
         <v>27172372</v>
@@ -1244,7 +2731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -1271,7 +2758,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1288,7 +2775,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -1305,7 +2792,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -1339,10 +2826,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C6">
         <v>677679</v>
@@ -1359,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C7">
         <v>677679</v>
@@ -1373,7 +2860,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1390,7 +2877,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1407,7 +2894,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1441,10 +2928,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C12">
         <v>1038838</v>
@@ -1461,7 +2948,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C13">
         <v>1038838</v>
@@ -1478,7 +2965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1490,7 +2977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1517,7 +3004,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C2">
         <v>10000000</v>
@@ -1531,7 +3018,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C3">
         <v>10000000</v>
@@ -1545,7 +3032,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C4">
         <v>10000000</v>
@@ -1559,7 +3046,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C5">
         <v>10000000</v>
@@ -1568,6 +3055,506 @@
         <v>2022</v>
       </c>
       <c r="E5">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2">
+        <v>443834452</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>81384684</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>808212</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>526027348</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7">
+        <v>526027348</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8">
+        <v>526027348</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9">
+        <v>458609986</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>70905994</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>611782</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>530127762</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14">
+        <v>530127762</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15">
+        <v>530127762</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4">
+        <v>765138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5">
+        <v>2841903</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7">
+        <v>3607067</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8">
+        <v>-3607067</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11">
+        <v>697145</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12">
+        <v>469432</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14">
+        <v>1166577</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15">
+        <v>-1166529</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
         <v>2022</v>
       </c>
     </row>
@@ -4109,307 +6096,885 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>7802444</v>
-      </c>
-      <c r="E2">
-        <v>2023</v>
-      </c>
-      <c r="F2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>6208320</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>-692994</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>-250215</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>33377</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>5298488</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>333926</v>
-      </c>
-      <c r="E3">
-        <v>2023</v>
-      </c>
-      <c r="F3">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="C9">
+        <v>-827521</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>54</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>34427416</v>
-      </c>
-      <c r="E4">
-        <v>2023</v>
-      </c>
-      <c r="F4">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="C10">
+        <v>575485</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>2795414</v>
-      </c>
-      <c r="E5">
-        <v>2023</v>
-      </c>
-      <c r="F5">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>754341</v>
-      </c>
-      <c r="E6">
-        <v>2023</v>
-      </c>
-      <c r="F6">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="C12">
+        <v>-33377</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>5293901</v>
-      </c>
-      <c r="E7">
-        <v>2023</v>
-      </c>
-      <c r="F7">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>-285413</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>2441269</v>
-      </c>
-      <c r="E8">
-        <v>2023</v>
-      </c>
-      <c r="F8">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>53848711</v>
-      </c>
-      <c r="E9">
-        <v>2023</v>
-      </c>
-      <c r="F9">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>8166254</v>
-      </c>
-      <c r="E10">
-        <v>2022</v>
-      </c>
-      <c r="F10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>785740</v>
-      </c>
-      <c r="E11">
-        <v>2022</v>
-      </c>
-      <c r="F11">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="C16">
+        <v>5380799</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>44920374</v>
-      </c>
-      <c r="E12">
-        <v>2022</v>
-      </c>
-      <c r="F12">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="C17">
+        <v>-117509</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>2471759</v>
-      </c>
-      <c r="E13">
-        <v>2022</v>
-      </c>
-      <c r="F13">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="C18">
+        <v>-250215</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>503541</v>
-      </c>
-      <c r="E14">
-        <v>2022</v>
-      </c>
-      <c r="F14">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>3376358</v>
-      </c>
-      <c r="E15">
-        <v>2022</v>
-      </c>
-      <c r="F15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <v>5013075</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>6047112</v>
-      </c>
-      <c r="E16">
-        <v>2022</v>
-      </c>
-      <c r="F16">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>66271138</v>
-      </c>
-      <c r="E17">
-        <v>2022</v>
-      </c>
-      <c r="F17">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22">
+        <v>5013075</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>5380799</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27">
+        <v>5380799</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28">
+        <v>-367724</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29">
+        <v>5013075</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31">
+        <v>-117509</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32">
+        <v>-250215</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34">
+        <v>-367724</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35">
+        <v>367724</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36">
         <v>2022</v>
       </c>
     </row>
@@ -4420,326 +6985,230 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>7126487</v>
+      </c>
+      <c r="D2">
+        <v>2023</v>
       </c>
       <c r="E2">
-        <v>70000000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>1029155</v>
+      </c>
+      <c r="D3">
+        <v>2023</v>
       </c>
       <c r="E3">
-        <v>70948462</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4">
+        <v>8155642</v>
+      </c>
+      <c r="D4">
+        <v>2023</v>
+      </c>
       <c r="E4">
-        <v>140948462</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
+        <v>71</v>
+      </c>
+      <c r="C5">
+        <v>285413</v>
+      </c>
+      <c r="D5">
+        <v>2023</v>
       </c>
       <c r="E5">
-        <v>70000000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
+        <v>71</v>
+      </c>
+      <c r="C6">
+        <v>285413</v>
+      </c>
+      <c r="D6">
+        <v>2023</v>
       </c>
       <c r="E6">
-        <v>70948462</v>
-      </c>
-      <c r="F6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7">
+        <v>8441055</v>
+      </c>
+      <c r="D7">
+        <v>2023</v>
       </c>
       <c r="E7">
-        <v>140948462</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>5062081</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>70006039</v>
-      </c>
-      <c r="F8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>862248</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>43733593</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <v>5924329</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
       <c r="E10">
-        <v>113739632</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
+        <v>71</v>
+      </c>
+      <c r="C11">
+        <v>-360728</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>70000000</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
+        <v>71</v>
+      </c>
+      <c r="C12">
+        <v>-360728</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>41234712</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13">
+        <v>5563601</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>111234712</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13">
         <v>2022</v>
       </c>
     </row>
@@ -4750,137 +7219,194 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
+        <v>72</v>
+      </c>
+      <c r="C2">
+        <v>21738319</v>
       </c>
       <c r="D2">
-        <v>70000000</v>
+        <v>2023</v>
       </c>
       <c r="E2">
         <v>2023</v>
       </c>
-      <c r="F2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>6521496</v>
       </c>
       <c r="D3">
-        <v>70948462</v>
+        <v>2023</v>
       </c>
       <c r="E3">
         <v>2023</v>
       </c>
-      <c r="F3">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
+        <v>74</v>
+      </c>
+      <c r="C4">
+        <v>604991</v>
       </c>
       <c r="D4">
-        <v>140948462</v>
+        <v>2023</v>
       </c>
       <c r="E4">
         <v>2023</v>
       </c>
-      <c r="F4">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
+        <v>68</v>
+      </c>
+      <c r="C5">
+        <v>285413</v>
       </c>
       <c r="D5">
-        <v>70000000</v>
+        <v>2023</v>
       </c>
       <c r="E5">
-        <v>2022</v>
-      </c>
-      <c r="F5">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>1029155</v>
       </c>
       <c r="D6">
-        <v>41234712</v>
+        <v>2023</v>
       </c>
       <c r="E6">
-        <v>2022</v>
-      </c>
-      <c r="F6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
+        <v>76</v>
+      </c>
+      <c r="C7">
+        <v>8441055</v>
       </c>
       <c r="D7">
-        <v>111234712</v>
+        <v>2023</v>
       </c>
       <c r="E7">
-        <v>2022</v>
-      </c>
-      <c r="F7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8">
+        <v>16873606</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9">
+        <v>5062081</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11">
+        <v>-360728</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>862248</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13">
+        <v>5563601</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
         <v>2022</v>
       </c>
     </row>
